--- a/Excel/mr.军阶(未完成).xlsx
+++ b/Excel/mr.军阶(未完成).xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF40FC56-D2C7-4FB8-8AD3-AB7F947B30AF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419D0CB6-46F3-4D32-ADE6-664E10092561}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
+    <sheet name="军阶" sheetId="26" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="142">
   <si>
     <t>sheet名</t>
   </si>
@@ -61,6 +62,480 @@
   </si>
   <si>
     <t>记录装备的属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第100章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第90章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第80章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第70章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第60章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级准尉</t>
+  </si>
+  <si>
+    <t>通关第55章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级准尉</t>
+  </si>
+  <si>
+    <t>通关第50章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级准尉</t>
+  </si>
+  <si>
+    <t>通关第45章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级准尉</t>
+  </si>
+  <si>
+    <t>通关第40章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级准尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第35章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级士官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第30章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级士官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级士官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第20章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第15章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参谋军士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第5章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1等兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第3章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2等兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第1章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性6价值</t>
+  </si>
+  <si>
+    <t>属性6权重</t>
+  </si>
+  <si>
+    <t>属性6目标</t>
+  </si>
+  <si>
+    <t>属性6ID</t>
+  </si>
+  <si>
+    <t>属性5价值</t>
+  </si>
+  <si>
+    <t>属性5权重</t>
+  </si>
+  <si>
+    <t>属性5目标</t>
+  </si>
+  <si>
+    <t>属性5ID</t>
+  </si>
+  <si>
+    <t>属性4价值</t>
+  </si>
+  <si>
+    <t>属性4权重</t>
+  </si>
+  <si>
+    <t>属性4目标</t>
+  </si>
+  <si>
+    <t>属性4ID</t>
+  </si>
+  <si>
+    <t>属性3价值</t>
+  </si>
+  <si>
+    <t>属性3权重</t>
+  </si>
+  <si>
+    <t>属性3目标</t>
+  </si>
+  <si>
+    <t>属性3ID</t>
+  </si>
+  <si>
+    <t>属性2价值</t>
+  </si>
+  <si>
+    <t>属性2权重</t>
+  </si>
+  <si>
+    <t>属性2目标</t>
+  </si>
+  <si>
+    <t>属性2ID</t>
+  </si>
+  <si>
+    <t>属性1价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性1权重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性1目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性1ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就描述4</t>
+  </si>
+  <si>
+    <t>成就ID4</t>
+  </si>
+  <si>
+    <t>成就描述3</t>
+  </si>
+  <si>
+    <t>成就ID3</t>
+  </si>
+  <si>
+    <t>成就描述2</t>
+  </si>
+  <si>
+    <t>成就ID2</t>
+  </si>
+  <si>
+    <t>成就描述1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就ID1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军阶名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr_id:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve_id:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[6].valv</t>
+  </si>
+  <si>
+    <t>attr[6].valw</t>
+  </si>
+  <si>
+    <t>attr[6].tar</t>
+  </si>
+  <si>
+    <t>attr[6].id</t>
+  </si>
+  <si>
+    <t>attr[5].valv</t>
+  </si>
+  <si>
+    <t>attr[5].valw</t>
+  </si>
+  <si>
+    <t>attr[5].tar</t>
+  </si>
+  <si>
+    <t>attr[5].id</t>
+  </si>
+  <si>
+    <t>attr[4].valv</t>
+  </si>
+  <si>
+    <t>attr[4].valw</t>
+  </si>
+  <si>
+    <t>attr[4].tar</t>
+  </si>
+  <si>
+    <t>attr[4].id</t>
+  </si>
+  <si>
+    <t>attr[3].valv</t>
+  </si>
+  <si>
+    <t>attr[3].valw</t>
+  </si>
+  <si>
+    <t>attr[3].tar</t>
+  </si>
+  <si>
+    <t>attr[3].id</t>
+  </si>
+  <si>
+    <t>attr[2].valv</t>
+  </si>
+  <si>
+    <t>attr[2].valw</t>
+  </si>
+  <si>
+    <t>attr[2].tar</t>
+  </si>
+  <si>
+    <t>attr[2].id</t>
+  </si>
+  <si>
+    <t>attr[1].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].tar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[4].desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[4].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[3].desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[3].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[2].desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[2].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[1].desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[1].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第2章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第7章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第9章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第11章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第13章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第22章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第24章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第26章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第28章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰等级达到10级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币花费10K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰1突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰和2对武器都达到3突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文总等级达到3级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -255,7 +730,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -265,6 +740,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -560,7 +1038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -629,4 +1107,1445 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05975AF-CE51-4201-9F68-A63B42E94591}">
+  <dimension ref="A1:AH29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="11" max="34" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+    </row>
+    <row r="5" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+    </row>
+    <row r="6" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+    </row>
+    <row r="7" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+    </row>
+    <row r="8" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+    </row>
+    <row r="9" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+    </row>
+    <row r="10" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+    </row>
+    <row r="11" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+    </row>
+    <row r="12" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+    </row>
+    <row r="13" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+    </row>
+    <row r="14" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+    </row>
+    <row r="15" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+    </row>
+    <row r="16" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+    </row>
+    <row r="17" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+    </row>
+    <row r="18" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+    </row>
+    <row r="19" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+    </row>
+    <row r="20" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+    </row>
+    <row r="21" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+    </row>
+    <row r="22" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+    </row>
+    <row r="23" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+    </row>
+    <row r="24" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+    </row>
+    <row r="25" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+    </row>
+    <row r="26" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+    </row>
+    <row r="27" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+    </row>
+    <row r="28" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+    </row>
+    <row r="29" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>